--- a/VersionRecords/Version 5.2.0.7_beta 20161214/版本Bug和特性计划及评审表v5.2.0.7.xlsx
+++ b/VersionRecords/Version 5.2.0.7_beta 20161214/版本Bug和特性计划及评审表v5.2.0.7.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.0.7_beta 20161214\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.2.0.7_beta 20161214\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.0.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="128">
   <si>
     <t>No</t>
   </si>
@@ -367,13 +367,118 @@
   <si>
     <t>许倩</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件名</t>
+  </si>
+  <si>
+    <t>技术经理</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>400系统</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-bs</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>log4j.properties</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>####################### 400log #######################
+log4j.logger.TeleAPILog=DEBUG,teleAPILog
+log4j.appender.teleAPILog=org.apache.log4j.DailyRollingFileAppender
+log4j.appender.teleAPILog.file=/data/mogologs/teleAPILog/TeleAPILog.log
+log4j.appender.teleAPILog.layout=org.apache.log4j.PatternLayout
+log4j.appender.accountLog.layout.ConversionPattern=[%d{yyyy-MM-dd HH\:mm\:ss}]&lt;%p&gt;\: %C.%M(%L) | %m %n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加400API日志配置</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>公测环境</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-bs</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400-conf
+sysconfig.tele_url = http://210.14.79.50
+sysconfig.tele_username = FA77F6F83B1BC85AB9AC707578A92CB8
+sysconfig.tele_password = 70A5579332F49374A09B3434341111EO2
+sysconfig.tele_generator_num = 4009006868</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加400API连接参数</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>公测环境</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加400API连接参数</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -502,6 +607,35 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -750,7 +884,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,6 +1116,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,7 +1146,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1397,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -1582,7 +1758,7 @@
       <c r="M3" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="77" t="s">
         <v>106</v>
       </c>
       <c r="O3" s="62" t="s">
@@ -1636,7 +1812,7 @@
       <c r="M4" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="77" t="s">
         <v>106</v>
       </c>
       <c r="O4" s="62" t="s">
@@ -1690,7 +1866,7 @@
       <c r="M5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="86" t="s">
+      <c r="N5" s="77" t="s">
         <v>106</v>
       </c>
       <c r="O5" s="62" t="s">
@@ -1744,7 +1920,7 @@
       <c r="M6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="86" t="s">
+      <c r="N6" s="77" t="s">
         <v>106</v>
       </c>
       <c r="O6" s="62" t="s">
@@ -5708,19 +5884,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5758,10 +5934,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="79">
+      <c r="A3" s="80">
         <v>1</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="80" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="20"/>
@@ -5779,8 +5955,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
         <v>68</v>
@@ -5796,10 +5972,10 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="79">
+      <c r="A5" s="80">
         <v>2</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="80" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="20"/>
@@ -5817,8 +5993,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
         <v>72</v>
@@ -5834,8 +6010,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21" t="s">
         <v>74</v>
@@ -5851,8 +6027,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21" t="s">
         <v>75</v>
@@ -5868,8 +6044,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5881,8 +6057,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5923,8 +6099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5944,123 +6120,195 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="16" t="s">
+      <c r="L3" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="93" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
+    <row r="4" spans="1:13" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="94">
+        <v>1</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="95"/>
+    </row>
+    <row r="5" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="97">
+        <v>2</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="97"/>
+    </row>
+    <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="97">
+        <v>3</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="97"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -6221,13 +6469,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I1:I3">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6259,36 +6507,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6573,36 +6821,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6887,36 +7135,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.0.7_beta 20161214/版本Bug和特性计划及评审表v5.2.0.7.xlsx
+++ b/VersionRecords/Version 5.2.0.7_beta 20161214/版本Bug和特性计划及评审表v5.2.0.7.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.2.0.7_beta 20161214\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.0.7_beta 20161214\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="146">
   <si>
     <t>No</t>
   </si>
@@ -473,11 +473,85 @@
     <t>增加400API连接参数</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>5.1.7</t>
+  </si>
+  <si>
+    <t>mogoroom-bs</t>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>#memcached-server
+memcached.memClientBiz1.host=
+memcached.memClientBiz1.port=
+memcached.memClientBiz1.weight=10
+memcached.memClientBiz2.host=
+memcached.memClientBiz2.port=
+memcached.memClientBiz2.weight=10
+memcached.memClientBiz3.host=
+memcached.memClientBiz3.port=
+memcached.memClientBiz3.weight=10
+memcached.memClientSearch1.host=
+memcached.memClientSearch1.port=
+memcached.memClientSearch1.weight=10
+memcached.memClientSearch2.host=
+memcached.memClientSearch2.port=
+memcached.memClientSearch2.weight=10</t>
+  </si>
+  <si>
+    <t>Memcached
+一致性Hash环
+配置</t>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>九天</t>
+  </si>
+  <si>
+    <t>host,port请根据
+实际服务器情况配置</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-messages</t>
+  </si>
+  <si>
+    <t>host,port请根据
+实际服务器情况配置</t>
+  </si>
+  <si>
+    <t>mogoroom-partner</t>
+  </si>
+  <si>
+    <t>mogoroom-partnerpc</t>
+  </si>
+  <si>
+    <t>mogoroom-renterembed</t>
+  </si>
+  <si>
+    <t>mogoroom-renterpc</t>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+  </si>
+  <si>
+    <t>mogoda-tasktracker</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -854,7 +928,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,8 +957,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,6 +1196,36 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1134,6 +1241,18 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,50 +1265,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="7"/>
     <cellStyle name="常规 2 2" xfId="5"/>
@@ -1199,6 +1285,7 @@
     <cellStyle name="常规 4 2" xfId="10"/>
     <cellStyle name="常规 5" xfId="11"/>
     <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 7" xfId="12"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="着色 4" xfId="4" builtinId="41"/>
@@ -5884,19 +5971,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5934,10 +6021,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="80">
+      <c r="A3" s="90">
         <v>1</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="90" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="20"/>
@@ -5955,8 +6042,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21" t="s">
         <v>68</v>
@@ -5972,10 +6059,10 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="80">
+      <c r="A5" s="90">
         <v>2</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="90" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="20"/>
@@ -5993,8 +6080,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
         <v>72</v>
@@ -6010,8 +6097,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21" t="s">
         <v>74</v>
@@ -6027,8 +6114,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21" t="s">
         <v>75</v>
@@ -6044,8 +6131,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6057,8 +6144,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6099,8 +6186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6121,361 +6208,615 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="91" t="s">
+      <c r="I3" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="91" t="s">
+      <c r="L3" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="93" t="s">
+      <c r="M3" s="80" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="94">
+      <c r="A4" s="81">
         <v>1</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="95"/>
+      <c r="M4" s="82"/>
     </row>
     <row r="5" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="97">
+      <c r="A5" s="84">
         <v>2</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="95" t="s">
+      <c r="J5" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="L5" s="94" t="s">
+      <c r="L5" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="97"/>
+      <c r="M5" s="84"/>
     </row>
     <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="97">
+      <c r="A6" s="84">
         <v>3</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="H6" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="95" t="s">
+      <c r="J6" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="L6" s="94" t="s">
+      <c r="L6" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="M6" s="97"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="M6" s="84"/>
+    </row>
+    <row r="7" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="101">
+        <v>1</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A8" s="101">
+        <v>2</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A9" s="101">
+        <v>3</v>
+      </c>
+      <c r="B9" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A10" s="101">
+        <v>4</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A11" s="101">
+        <v>5</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" s="103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A12" s="101">
+        <v>6</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A13" s="101">
+        <v>7</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A14" s="101">
+        <v>8</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A15" s="101">
+        <v>9</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A16" s="101">
+        <v>10</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" s="103" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I1:I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I7:I16">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6507,36 +6848,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6821,36 +7162,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7135,36 +7476,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
